--- a/table/KO_affilated_to_biogeochemical_cycle.xlsx
+++ b/table/KO_affilated_to_biogeochemical_cycle.xlsx
@@ -3813,12 +3813,6 @@
     <t>MmtN</t>
   </si>
   <si>
-    <t>DSYB</t>
-  </si>
-  <si>
-    <t>DsyB</t>
-  </si>
-  <si>
     <t>DMSP demethylation, DMSP -&gt; MMPA (dmdA)</t>
   </si>
   <si>
@@ -3945,6 +3939,14 @@
   </si>
   <si>
     <t>MeSH oxidase</t>
+  </si>
+  <si>
+    <t>DSYB_euka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsyB_prok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4272,7 +4274,7 @@
   <dimension ref="A1:D788"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="F544" sqref="F544"/>
+      <selection activeCell="C535" sqref="C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8751,199 +8753,199 @@
         <v>1263</v>
       </c>
       <c r="D533" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C534" t="s">
-        <v>1264</v>
+        <v>1306</v>
       </c>
       <c r="D534" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C535" t="s">
-        <v>1265</v>
+        <v>1307</v>
       </c>
       <c r="D535" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C536" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D536" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C537" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D537" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C538" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D538" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C539" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D539" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C540" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D540" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C541" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D541" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C542" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D542" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C543" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D543" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C544" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D544" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C545" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D545" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C546" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D546" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C547" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D547" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C548" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D548" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C549" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D549" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C550" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D550" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C551" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D551" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C552" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D552" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C553" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D553" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C554" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D554" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">

--- a/table/KO_affilated_to_biogeochemical_cycle.xlsx
+++ b/table/KO_affilated_to_biogeochemical_cycle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1322">
   <si>
     <t>Cycle</t>
   </si>
@@ -3807,21 +3807,12 @@
     <t>arsA; arsenite/tail-anchored protein-transporting ATPase</t>
   </si>
   <si>
-    <t>DMSP biosynthesis, L-Met -&gt; DMSP (DSYB or dsyB or mmtN)</t>
-  </si>
-  <si>
     <t>MmtN</t>
   </si>
   <si>
-    <t>DMSP demethylation, DMSP -&gt; MMPA (dmdA)</t>
-  </si>
-  <si>
     <t>DmdA</t>
   </si>
   <si>
-    <t>DMSP demethylation, MMPA -&gt; MeSH (dmdBCD or acuH)</t>
-  </si>
-  <si>
     <t>DmdB</t>
   </si>
   <si>
@@ -3834,9 +3825,6 @@
     <t>AcuH</t>
   </si>
   <si>
-    <t>DMSP cleavage, DMSP -&gt; DMS (ddds or alma1)</t>
-  </si>
-  <si>
     <t>Alma1</t>
   </si>
   <si>
@@ -3861,34 +3849,10 @@
     <t>DddY</t>
   </si>
   <si>
-    <t>DMS oxidation, DMS -&gt; MeSH (dmoA)</t>
-  </si>
-  <si>
     <t>DmoA</t>
   </si>
   <si>
-    <t>DMS oxidation, DMS -&gt; DMSO (ddhA or tmm)</t>
-  </si>
-  <si>
-    <t>DdhA</t>
-  </si>
-  <si>
-    <t>Tmm</t>
-  </si>
-  <si>
-    <t>DMSO reduction, DMSO -&gt; DMS (dMSOR)</t>
-  </si>
-  <si>
-    <t>DMSOR</t>
-  </si>
-  <si>
-    <t>MddA pathway, MeSH -&gt; DMS (mddA)</t>
-  </si>
-  <si>
     <t>MddA</t>
-  </si>
-  <si>
-    <t>MeSH oxidation, MeSH -&gt; Formaldehyde (mTO)</t>
   </si>
   <si>
     <t>MTO</t>
@@ -3926,15 +3890,6 @@
     <t>dimethylsulfide monooxgenase</t>
   </si>
   <si>
-    <t>dimethylsulfide dehydrogenase</t>
-  </si>
-  <si>
-    <t>trimethylamine monooxygenase</t>
-  </si>
-  <si>
-    <t>dimethyl sulfoxide reductase</t>
-  </si>
-  <si>
     <t>MeSH S-methyltransferase</t>
   </si>
   <si>
@@ -3946,6 +3901,122 @@
   </si>
   <si>
     <t>DsyB_prok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddhC; dimethylsulfide dehydrogenase subunit gamma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddhB; dimethylsulfide dehydrogenase subunit beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K16964</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddhA; dimethylsulfide dehydrogenase subunit alpha [EC:1.8.2.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSP biosynthesis, L-Met -&gt; DMSP (DSYB or dsyB or mmtN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSP demethylation, DMSP -&gt; MMPA (dmdA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSP demethylation, MMPA -&gt; MeSH (dmdBCD or acuH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSP cleavage, DMSP -&gt; DMS (ddds or alma1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS oxidation, DMS -&gt; MeSH (dmoA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS oxidation, DMS -&gt; DMSO (ddhABC or tmm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K18277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmm; trimethylamine monooxygenase [EC:1.14.13.148]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeSH oxidation, MeSH -&gt; Formaldehyde (MTO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MddA pathway, MeSH -&gt; DMS (mddA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmsB; dimethyl sulfoxide reductase iron-sulfur subunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K00185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmsC; dimethyl sulfoxide reductase membrane subunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmsB; anaerobic dimethyl sulfoxide reductase subunit B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimethyl sulfoxide/trimethylamine N-oxide reductase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DorA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMSO reduction, DMSO -&gt; DMS (dms or dorA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K00184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K07306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmsA; anaerobic dimethyl sulfoxide reductase subunit A [EC:1.8.5.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K07307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K07308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmsC; anaerobic dimethyl sulfoxide reductase subunit C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4271,15 +4342,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D788"/>
+  <dimension ref="A1:D795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="C535" sqref="C535"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L541" sqref="L541"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4293,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4307,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -4315,7 +4386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -4323,7 +4394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -4331,7 +4402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -4339,7 +4410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -4358,7 +4429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -4366,7 +4437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -4374,7 +4445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -4382,7 +4453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -4390,7 +4461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -4409,7 +4480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>34</v>
       </c>
@@ -4417,7 +4488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -4425,7 +4496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -4433,7 +4504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -4441,7 +4512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -4449,7 +4520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>44</v>
       </c>
@@ -4457,7 +4528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -4465,7 +4536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>48</v>
       </c>
@@ -4476,7 +4547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -4484,7 +4555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -4495,7 +4566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>56</v>
       </c>
@@ -4503,7 +4574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -4511,7 +4582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>60</v>
       </c>
@@ -4519,7 +4590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -4533,7 +4604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -4541,7 +4612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>68</v>
       </c>
@@ -4549,7 +4620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>70</v>
       </c>
@@ -4557,7 +4628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>72</v>
       </c>
@@ -4565,7 +4636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>74</v>
       </c>
@@ -4573,7 +4644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>76</v>
       </c>
@@ -4581,7 +4652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>78</v>
       </c>
@@ -4589,7 +4660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>80</v>
       </c>
@@ -4597,7 +4668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>82</v>
       </c>
@@ -4605,7 +4676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -4613,7 +4684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>86</v>
       </c>
@@ -4621,7 +4692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>88</v>
       </c>
@@ -4629,7 +4700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>90</v>
       </c>
@@ -4637,7 +4708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>92</v>
       </c>
@@ -4645,7 +4716,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>86</v>
       </c>
@@ -4653,7 +4724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>88</v>
       </c>
@@ -4661,7 +4732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>94</v>
       </c>
@@ -4669,7 +4740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>96</v>
       </c>
@@ -4677,7 +4748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>98</v>
       </c>
@@ -4688,7 +4759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>101</v>
       </c>
@@ -4696,7 +4767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>103</v>
       </c>
@@ -4704,7 +4775,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>105</v>
       </c>
@@ -4712,7 +4783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>107</v>
       </c>
@@ -4720,7 +4791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>109</v>
       </c>
@@ -4728,7 +4799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>111</v>
       </c>
@@ -4736,7 +4807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>113</v>
       </c>
@@ -4744,7 +4815,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>115</v>
       </c>
@@ -4752,7 +4823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>117</v>
       </c>
@@ -4760,7 +4831,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -4768,7 +4839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>121</v>
       </c>
@@ -4776,7 +4847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>123</v>
       </c>
@@ -4784,7 +4855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>125</v>
       </c>
@@ -4792,7 +4863,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>127</v>
       </c>
@@ -4800,7 +4871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>129</v>
       </c>
@@ -4808,7 +4879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>131</v>
       </c>
@@ -4816,7 +4887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>133</v>
       </c>
@@ -4824,7 +4895,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>135</v>
       </c>
@@ -4832,7 +4903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>137</v>
       </c>
@@ -4840,7 +4911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>139</v>
       </c>
@@ -4848,7 +4919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>141</v>
       </c>
@@ -4856,7 +4927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>143</v>
       </c>
@@ -4864,7 +4935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>145</v>
       </c>
@@ -4872,7 +4943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>147</v>
       </c>
@@ -4880,7 +4951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>149</v>
       </c>
@@ -4888,7 +4959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>151</v>
       </c>
@@ -4896,7 +4967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>153</v>
       </c>
@@ -4904,7 +4975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>155</v>
       </c>
@@ -4912,7 +4983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>157</v>
       </c>
@@ -4920,7 +4991,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>159</v>
       </c>
@@ -4928,7 +4999,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>161</v>
       </c>
@@ -4936,7 +5007,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>163</v>
       </c>
@@ -4944,7 +5015,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>165</v>
       </c>
@@ -4952,7 +5023,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>167</v>
       </c>
@@ -4960,7 +5031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>169</v>
       </c>
@@ -4968,7 +5039,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>171</v>
       </c>
@@ -4976,7 +5047,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>173</v>
       </c>
@@ -4984,7 +5055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>175</v>
       </c>
@@ -4992,7 +5063,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>177</v>
       </c>
@@ -5000,7 +5071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>179</v>
       </c>
@@ -5008,7 +5079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>181</v>
       </c>
@@ -5016,7 +5087,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>183</v>
       </c>
@@ -5024,7 +5095,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>185</v>
       </c>
@@ -5035,7 +5106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>188</v>
       </c>
@@ -5043,7 +5114,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>190</v>
       </c>
@@ -5051,7 +5122,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>192</v>
       </c>
@@ -5059,7 +5130,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>194</v>
       </c>
@@ -5067,7 +5138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>196</v>
       </c>
@@ -5075,7 +5146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>198</v>
       </c>
@@ -5083,7 +5154,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>200</v>
       </c>
@@ -5091,7 +5162,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>202</v>
       </c>
@@ -5099,7 +5170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>204</v>
       </c>
@@ -5107,7 +5178,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>206</v>
       </c>
@@ -5118,7 +5189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>209</v>
       </c>
@@ -5126,7 +5197,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>211</v>
       </c>
@@ -5134,7 +5205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>213</v>
       </c>
@@ -5142,7 +5213,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>215</v>
       </c>
@@ -5150,7 +5221,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>217</v>
       </c>
@@ -5158,7 +5229,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>219</v>
       </c>
@@ -5166,7 +5237,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>221</v>
       </c>
@@ -5174,7 +5245,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>223</v>
       </c>
@@ -5182,7 +5253,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>225</v>
       </c>
@@ -5190,7 +5261,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>227</v>
       </c>
@@ -5198,7 +5269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>229</v>
       </c>
@@ -5206,7 +5277,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>231</v>
       </c>
@@ -5214,7 +5285,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>131</v>
       </c>
@@ -5222,7 +5293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>133</v>
       </c>
@@ -5230,7 +5301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>135</v>
       </c>
@@ -5238,7 +5309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>125</v>
       </c>
@@ -5246,7 +5317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>233</v>
       </c>
@@ -5254,7 +5325,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>235</v>
       </c>
@@ -5262,7 +5333,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>237</v>
       </c>
@@ -5270,7 +5341,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>239</v>
       </c>
@@ -5278,7 +5349,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>241</v>
       </c>
@@ -5289,7 +5360,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>244</v>
       </c>
@@ -5297,7 +5368,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>246</v>
       </c>
@@ -5305,7 +5376,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>248</v>
       </c>
@@ -5313,7 +5384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>250</v>
       </c>
@@ -5321,7 +5392,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>252</v>
       </c>
@@ -5329,7 +5400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>254</v>
       </c>
@@ -5337,7 +5408,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>256</v>
       </c>
@@ -5345,7 +5416,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>221</v>
       </c>
@@ -5353,7 +5424,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>225</v>
       </c>
@@ -5361,7 +5432,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>227</v>
       </c>
@@ -5369,7 +5440,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>258</v>
       </c>
@@ -5377,7 +5448,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>248</v>
       </c>
@@ -5385,7 +5456,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>260</v>
       </c>
@@ -5393,7 +5464,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>262</v>
       </c>
@@ -5401,7 +5472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>264</v>
       </c>
@@ -5409,7 +5480,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>266</v>
       </c>
@@ -5417,7 +5488,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>268</v>
       </c>
@@ -5425,7 +5496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>270</v>
       </c>
@@ -5433,7 +5504,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>272</v>
       </c>
@@ -5444,7 +5515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>101</v>
       </c>
@@ -5452,7 +5523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>103</v>
       </c>
@@ -5460,7 +5531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>105</v>
       </c>
@@ -5468,7 +5539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>109</v>
       </c>
@@ -5476,7 +5547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>113</v>
       </c>
@@ -5484,7 +5555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>121</v>
       </c>
@@ -5492,7 +5563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>123</v>
       </c>
@@ -5500,7 +5571,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>127</v>
       </c>
@@ -5508,7 +5579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>129</v>
       </c>
@@ -5516,7 +5587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>131</v>
       </c>
@@ -5524,7 +5595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>133</v>
       </c>
@@ -5532,7 +5603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>135</v>
       </c>
@@ -5540,7 +5611,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>273</v>
       </c>
@@ -5548,7 +5619,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>157</v>
       </c>
@@ -5556,7 +5627,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>159</v>
       </c>
@@ -5564,7 +5635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>258</v>
       </c>
@@ -5572,7 +5643,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>248</v>
       </c>
@@ -5580,7 +5651,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>260</v>
       </c>
@@ -5588,7 +5659,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>275</v>
       </c>
@@ -5596,7 +5667,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>264</v>
       </c>
@@ -5604,7 +5675,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>266</v>
       </c>
@@ -5612,7 +5683,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>268</v>
       </c>
@@ -5620,7 +5691,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>270</v>
       </c>
@@ -5628,7 +5699,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>277</v>
       </c>
@@ -5642,7 +5713,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>281</v>
       </c>
@@ -5650,7 +5721,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>283</v>
       </c>
@@ -5658,7 +5729,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>285</v>
       </c>
@@ -5666,7 +5737,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>287</v>
       </c>
@@ -5674,7 +5745,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>289</v>
       </c>
@@ -5682,7 +5753,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>291</v>
       </c>
@@ -5690,7 +5761,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>293</v>
       </c>
@@ -5698,7 +5769,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>295</v>
       </c>
@@ -5706,7 +5777,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>297</v>
       </c>
@@ -5714,7 +5785,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>299</v>
       </c>
@@ -5722,7 +5793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>301</v>
       </c>
@@ -5730,7 +5801,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>289</v>
       </c>
@@ -5738,7 +5809,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>78</v>
       </c>
@@ -5746,7 +5817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>303</v>
       </c>
@@ -5762,7 +5833,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>305</v>
       </c>
@@ -5770,7 +5841,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>307</v>
       </c>
@@ -5778,7 +5849,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>309</v>
       </c>
@@ -5786,7 +5857,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>76</v>
       </c>
@@ -5794,7 +5865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>74</v>
       </c>
@@ -5802,7 +5873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>70</v>
       </c>
@@ -5810,7 +5881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>311</v>
       </c>
@@ -5818,7 +5889,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>313</v>
       </c>
@@ -5826,7 +5897,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
         <v>315</v>
       </c>
@@ -5834,7 +5905,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
         <v>317</v>
       </c>
@@ -5842,7 +5913,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
         <v>319</v>
       </c>
@@ -5850,7 +5921,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>321</v>
       </c>
@@ -5858,7 +5929,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
         <v>323</v>
       </c>
@@ -5866,7 +5937,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
         <v>325</v>
       </c>
@@ -5874,7 +5945,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>327</v>
       </c>
@@ -5885,7 +5956,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>330</v>
       </c>
@@ -5893,7 +5964,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
         <v>332</v>
       </c>
@@ -5901,7 +5972,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
         <v>334</v>
       </c>
@@ -5909,7 +5980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
         <v>336</v>
       </c>
@@ -5917,7 +5988,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>338</v>
       </c>
@@ -5928,7 +5999,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
         <v>341</v>
       </c>
@@ -5936,7 +6007,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
         <v>321</v>
       </c>
@@ -5944,7 +6015,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
         <v>313</v>
       </c>
@@ -5952,7 +6023,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
         <v>315</v>
       </c>
@@ -5960,7 +6031,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
         <v>317</v>
       </c>
@@ -5968,7 +6039,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
         <v>319</v>
       </c>
@@ -5976,7 +6047,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
         <v>70</v>
       </c>
@@ -5984,7 +6055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
         <v>76</v>
       </c>
@@ -5992,7 +6063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
         <v>74</v>
       </c>
@@ -6000,7 +6071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
         <v>309</v>
       </c>
@@ -6008,7 +6079,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
         <v>78</v>
       </c>
@@ -6016,7 +6087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
         <v>80</v>
       </c>
@@ -6024,7 +6095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
         <v>303</v>
       </c>
@@ -6032,7 +6103,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
         <v>82</v>
       </c>
@@ -6040,7 +6111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
         <v>84</v>
       </c>
@@ -6048,7 +6119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
         <v>86</v>
       </c>
@@ -6056,7 +6127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
         <v>88</v>
       </c>
@@ -6064,7 +6135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
         <v>343</v>
       </c>
@@ -6072,7 +6143,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
         <v>345</v>
       </c>
@@ -6080,7 +6151,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>347</v>
       </c>
@@ -6091,7 +6162,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
         <v>350</v>
       </c>
@@ -6099,7 +6170,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
         <v>171</v>
       </c>
@@ -6107,7 +6178,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
         <v>173</v>
       </c>
@@ -6115,7 +6186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
         <v>169</v>
       </c>
@@ -6123,7 +6194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
         <v>352</v>
       </c>
@@ -6131,7 +6202,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
         <v>354</v>
       </c>
@@ -6139,7 +6210,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
         <v>356</v>
       </c>
@@ -6147,7 +6218,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
         <v>358</v>
       </c>
@@ -6155,7 +6226,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
         <v>161</v>
       </c>
@@ -6163,7 +6234,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
         <v>163</v>
       </c>
@@ -6171,7 +6242,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
         <v>165</v>
       </c>
@@ -6179,7 +6250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
         <v>167</v>
       </c>
@@ -6187,7 +6258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
         <v>157</v>
       </c>
@@ -6195,7 +6266,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
         <v>159</v>
       </c>
@@ -6203,7 +6274,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
         <v>360</v>
       </c>
@@ -6211,7 +6282,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
         <v>362</v>
       </c>
@@ -6219,7 +6290,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
         <v>364</v>
       </c>
@@ -6227,7 +6298,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
         <v>366</v>
       </c>
@@ -6235,7 +6306,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
         <v>368</v>
       </c>
@@ -6243,7 +6314,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
         <v>370</v>
       </c>
@@ -6251,7 +6322,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C240" t="s">
         <v>372</v>
       </c>
@@ -6259,7 +6330,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C241" t="s">
         <v>131</v>
       </c>
@@ -6267,7 +6338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C242" t="s">
         <v>133</v>
       </c>
@@ -6275,7 +6346,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C243" t="s">
         <v>135</v>
       </c>
@@ -6283,7 +6354,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C244" t="s">
         <v>137</v>
       </c>
@@ -6291,7 +6362,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C245" t="s">
         <v>374</v>
       </c>
@@ -6299,7 +6370,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C246" t="s">
         <v>273</v>
       </c>
@@ -6307,7 +6378,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C247" t="s">
         <v>139</v>
       </c>
@@ -6315,7 +6386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C248" t="s">
         <v>141</v>
       </c>
@@ -6323,7 +6394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C249" t="s">
         <v>143</v>
       </c>
@@ -6331,7 +6402,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C250" t="s">
         <v>145</v>
       </c>
@@ -6339,7 +6410,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C251" t="s">
         <v>123</v>
       </c>
@@ -6347,7 +6418,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C252" t="s">
         <v>125</v>
       </c>
@@ -6355,7 +6426,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C253" t="s">
         <v>127</v>
       </c>
@@ -6363,7 +6434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
         <v>129</v>
       </c>
@@ -6371,7 +6442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C255" t="s">
         <v>376</v>
       </c>
@@ -6379,7 +6450,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C256" t="s">
         <v>378</v>
       </c>
@@ -6387,7 +6458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C257" t="s">
         <v>121</v>
       </c>
@@ -6395,7 +6466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C258" t="s">
         <v>380</v>
       </c>
@@ -6403,7 +6474,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>382</v>
       </c>
@@ -6417,7 +6488,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C260" t="s">
         <v>386</v>
       </c>
@@ -6425,7 +6496,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C261" t="s">
         <v>388</v>
       </c>
@@ -6433,7 +6504,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C262" t="s">
         <v>390</v>
       </c>
@@ -6441,7 +6512,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C263" t="s">
         <v>392</v>
       </c>
@@ -6449,7 +6520,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C264" t="s">
         <v>394</v>
       </c>
@@ -6457,7 +6528,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C265" t="s">
         <v>396</v>
       </c>
@@ -6465,7 +6536,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C266" t="s">
         <v>398</v>
       </c>
@@ -6473,7 +6544,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
         <v>400</v>
       </c>
@@ -6481,7 +6552,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C268" t="s">
         <v>402</v>
       </c>
@@ -6489,7 +6560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C269" t="s">
         <v>404</v>
       </c>
@@ -6497,7 +6568,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C270" t="s">
         <v>406</v>
       </c>
@@ -6505,7 +6576,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C271" t="s">
         <v>408</v>
       </c>
@@ -6513,7 +6584,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C272" t="s">
         <v>410</v>
       </c>
@@ -6521,7 +6592,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C273" t="s">
         <v>412</v>
       </c>
@@ -6529,7 +6600,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C274" t="s">
         <v>414</v>
       </c>
@@ -6537,7 +6608,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C275" t="s">
         <v>416</v>
       </c>
@@ -6545,7 +6616,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C276" t="s">
         <v>418</v>
       </c>
@@ -6553,7 +6624,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C277" t="s">
         <v>420</v>
       </c>
@@ -6561,7 +6632,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>422</v>
       </c>
@@ -6572,7 +6643,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C279" t="s">
         <v>425</v>
       </c>
@@ -6580,7 +6651,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C280" t="s">
         <v>427</v>
       </c>
@@ -6588,7 +6659,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
         <v>429</v>
       </c>
@@ -6596,7 +6667,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C282" t="s">
         <v>431</v>
       </c>
@@ -6604,7 +6675,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C283" t="s">
         <v>202</v>
       </c>
@@ -6612,7 +6683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C284" t="s">
         <v>204</v>
       </c>
@@ -6620,7 +6691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C285" t="s">
         <v>433</v>
       </c>
@@ -6628,7 +6699,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C286" t="s">
         <v>435</v>
       </c>
@@ -6636,7 +6707,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C287" t="s">
         <v>437</v>
       </c>
@@ -6644,7 +6715,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C288" t="s">
         <v>439</v>
       </c>
@@ -6652,7 +6723,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C289" t="s">
         <v>441</v>
       </c>
@@ -6660,7 +6731,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C290" t="s">
         <v>443</v>
       </c>
@@ -6668,7 +6739,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C291" t="s">
         <v>445</v>
       </c>
@@ -6676,7 +6747,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C292" t="s">
         <v>447</v>
       </c>
@@ -6684,7 +6755,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C293" t="s">
         <v>390</v>
       </c>
@@ -6692,7 +6763,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C294" t="s">
         <v>392</v>
       </c>
@@ -6700,7 +6771,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C295" t="s">
         <v>394</v>
       </c>
@@ -6708,7 +6779,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C296" t="s">
         <v>396</v>
       </c>
@@ -6716,7 +6787,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C297" t="s">
         <v>398</v>
       </c>
@@ -6724,7 +6795,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C298" t="s">
         <v>400</v>
       </c>
@@ -6732,7 +6803,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C299" t="s">
         <v>402</v>
       </c>
@@ -6740,7 +6811,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C300" t="s">
         <v>404</v>
       </c>
@@ -6748,7 +6819,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
         <v>406</v>
       </c>
@@ -6756,7 +6827,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C302" t="s">
         <v>408</v>
       </c>
@@ -6764,7 +6835,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C303" t="s">
         <v>410</v>
       </c>
@@ -6772,7 +6843,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C304" t="s">
         <v>412</v>
       </c>
@@ -6780,7 +6851,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C305" t="s">
         <v>414</v>
       </c>
@@ -6788,7 +6859,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C306" t="s">
         <v>416</v>
       </c>
@@ -6796,7 +6867,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C307" t="s">
         <v>418</v>
       </c>
@@ -6804,7 +6875,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C308" t="s">
         <v>420</v>
       </c>
@@ -6812,7 +6883,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>449</v>
       </c>
@@ -6823,7 +6894,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C310" t="s">
         <v>452</v>
       </c>
@@ -6831,7 +6902,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C311" t="s">
         <v>454</v>
       </c>
@@ -6839,7 +6910,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C312" t="s">
         <v>456</v>
       </c>
@@ -6847,7 +6918,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C313" t="s">
         <v>458</v>
       </c>
@@ -6855,7 +6926,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
         <v>460</v>
       </c>
@@ -6863,7 +6934,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C315" t="s">
         <v>462</v>
       </c>
@@ -6871,7 +6942,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C316" t="s">
         <v>464</v>
       </c>
@@ -6879,7 +6950,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C317" t="s">
         <v>466</v>
       </c>
@@ -6887,7 +6958,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C318" t="s">
         <v>468</v>
       </c>
@@ -6895,7 +6966,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C319" t="s">
         <v>470</v>
       </c>
@@ -6903,7 +6974,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C320" t="s">
         <v>472</v>
       </c>
@@ -6911,7 +6982,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C321" t="s">
         <v>474</v>
       </c>
@@ -6919,7 +6990,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C322" t="s">
         <v>433</v>
       </c>
@@ -6927,7 +6998,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C323" t="s">
         <v>435</v>
       </c>
@@ -6935,7 +7006,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C324" t="s">
         <v>437</v>
       </c>
@@ -6943,7 +7014,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C325" t="s">
         <v>439</v>
       </c>
@@ -6951,7 +7022,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C326" t="s">
         <v>441</v>
       </c>
@@ -6959,7 +7030,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C327" t="s">
         <v>443</v>
       </c>
@@ -6967,7 +7038,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C328" t="s">
         <v>445</v>
       </c>
@@ -6975,7 +7046,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C329" t="s">
         <v>447</v>
       </c>
@@ -6983,7 +7054,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C330" t="s">
         <v>390</v>
       </c>
@@ -6991,7 +7062,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C331" t="s">
         <v>392</v>
       </c>
@@ -6999,7 +7070,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C332" t="s">
         <v>394</v>
       </c>
@@ -7007,7 +7078,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C333" t="s">
         <v>396</v>
       </c>
@@ -7015,7 +7086,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C334" t="s">
         <v>398</v>
       </c>
@@ -7023,7 +7094,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C335" t="s">
         <v>400</v>
       </c>
@@ -7031,7 +7102,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C336" t="s">
         <v>402</v>
       </c>
@@ -7039,7 +7110,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C337" t="s">
         <v>404</v>
       </c>
@@ -7047,7 +7118,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C338" t="s">
         <v>406</v>
       </c>
@@ -7055,7 +7126,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C339" t="s">
         <v>408</v>
       </c>
@@ -7063,7 +7134,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C340" t="s">
         <v>410</v>
       </c>
@@ -7071,7 +7142,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C341" t="s">
         <v>412</v>
       </c>
@@ -7079,7 +7150,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C342" t="s">
         <v>414</v>
       </c>
@@ -7087,7 +7158,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C343" t="s">
         <v>416</v>
       </c>
@@ -7095,7 +7166,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C344" t="s">
         <v>418</v>
       </c>
@@ -7103,7 +7174,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C345" t="s">
         <v>420</v>
       </c>
@@ -7111,7 +7182,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>476</v>
       </c>
@@ -7122,7 +7193,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C347" t="s">
         <v>479</v>
       </c>
@@ -7130,7 +7201,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C348" t="s">
         <v>481</v>
       </c>
@@ -7138,7 +7209,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C349" t="s">
         <v>390</v>
       </c>
@@ -7146,7 +7217,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C350" t="s">
         <v>392</v>
       </c>
@@ -7154,7 +7225,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C351" t="s">
         <v>394</v>
       </c>
@@ -7162,7 +7233,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>483</v>
       </c>
@@ -7173,7 +7244,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C353" t="s">
         <v>485</v>
       </c>
@@ -7181,7 +7252,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C354" t="s">
         <v>487</v>
       </c>
@@ -7189,7 +7260,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C355" t="s">
         <v>390</v>
       </c>
@@ -7197,7 +7268,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C356" t="s">
         <v>392</v>
       </c>
@@ -7205,7 +7276,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C357" t="s">
         <v>394</v>
       </c>
@@ -7213,7 +7284,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>489</v>
       </c>
@@ -7224,7 +7295,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C359" t="s">
         <v>490</v>
       </c>
@@ -7232,7 +7303,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C360" t="s">
         <v>492</v>
       </c>
@@ -7240,7 +7311,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C361" t="s">
         <v>390</v>
       </c>
@@ -7248,7 +7319,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C362" t="s">
         <v>392</v>
       </c>
@@ -7256,7 +7327,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C363" t="s">
         <v>394</v>
       </c>
@@ -7264,7 +7335,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>494</v>
       </c>
@@ -7275,7 +7346,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C365" t="s">
         <v>497</v>
       </c>
@@ -7283,7 +7354,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C366" t="s">
         <v>499</v>
       </c>
@@ -7291,7 +7362,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C367" t="s">
         <v>501</v>
       </c>
@@ -7299,7 +7370,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
         <v>503</v>
       </c>
@@ -7307,7 +7378,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
         <v>505</v>
       </c>
@@ -7315,7 +7386,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
         <v>507</v>
       </c>
@@ -7323,7 +7394,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
         <v>509</v>
       </c>
@@ -7331,7 +7402,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
         <v>511</v>
       </c>
@@ -7339,7 +7410,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>513</v>
       </c>
@@ -7350,7 +7421,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C374" t="s">
         <v>516</v>
       </c>
@@ -7358,7 +7429,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C375" t="s">
         <v>518</v>
       </c>
@@ -7366,7 +7437,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>520</v>
       </c>
@@ -7380,7 +7451,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>524</v>
       </c>
@@ -7391,7 +7462,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>527</v>
       </c>
@@ -7402,7 +7473,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C379" t="s">
         <v>530</v>
       </c>
@@ -7410,7 +7481,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C380" t="s">
         <v>532</v>
       </c>
@@ -7418,7 +7489,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C381" t="s">
         <v>420</v>
       </c>
@@ -7426,7 +7497,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C382" t="s">
         <v>534</v>
       </c>
@@ -7434,7 +7505,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C383" t="s">
         <v>536</v>
       </c>
@@ -7442,7 +7513,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C384" t="s">
         <v>538</v>
       </c>
@@ -7450,7 +7521,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C385" t="s">
         <v>418</v>
       </c>
@@ -7458,7 +7529,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C386" t="s">
         <v>420</v>
       </c>
@@ -7466,7 +7537,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>540</v>
       </c>
@@ -7477,7 +7548,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C388" t="s">
         <v>543</v>
       </c>
@@ -7485,7 +7556,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C389" t="s">
         <v>545</v>
       </c>
@@ -7493,7 +7564,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C390" t="s">
         <v>547</v>
       </c>
@@ -7501,7 +7572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C391" t="s">
         <v>549</v>
       </c>
@@ -7509,7 +7580,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C392" t="s">
         <v>550</v>
       </c>
@@ -7517,7 +7588,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C393" t="s">
         <v>427</v>
       </c>
@@ -7525,7 +7596,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C394" t="s">
         <v>425</v>
       </c>
@@ -7533,7 +7604,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C395" t="s">
         <v>545</v>
       </c>
@@ -7541,7 +7612,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>553</v>
       </c>
@@ -7552,7 +7623,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C397" t="s">
         <v>556</v>
       </c>
@@ -7560,7 +7631,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C398" t="s">
         <v>557</v>
       </c>
@@ -7568,7 +7639,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C399" t="s">
         <v>558</v>
       </c>
@@ -7576,7 +7647,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C400" t="s">
         <v>560</v>
       </c>
@@ -7584,7 +7655,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>562</v>
       </c>
@@ -7595,7 +7666,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C402" t="s">
         <v>565</v>
       </c>
@@ -7603,7 +7674,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C403" t="s">
         <v>567</v>
       </c>
@@ -7611,7 +7682,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C404" t="s">
         <v>569</v>
       </c>
@@ -7619,7 +7690,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C405" t="s">
         <v>571</v>
       </c>
@@ -7627,7 +7698,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>573</v>
       </c>
@@ -7638,7 +7709,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C407" t="s">
         <v>576</v>
       </c>
@@ -7646,7 +7717,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C408" t="s">
         <v>577</v>
       </c>
@@ -7654,7 +7725,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C409" t="s">
         <v>578</v>
       </c>
@@ -7662,7 +7733,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C410" t="s">
         <v>579</v>
       </c>
@@ -7670,7 +7741,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C411" t="s">
         <v>580</v>
       </c>
@@ -7678,7 +7749,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C412" t="s">
         <v>581</v>
       </c>
@@ -7686,7 +7757,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C413" t="s">
         <v>567</v>
       </c>
@@ -7694,7 +7765,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C414" t="s">
         <v>582</v>
       </c>
@@ -7702,7 +7773,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C415" t="s">
         <v>514</v>
       </c>
@@ -7710,7 +7781,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C416" t="s">
         <v>516</v>
       </c>
@@ -7718,7 +7789,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C417" t="s">
         <v>583</v>
       </c>
@@ -7726,7 +7797,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C418" t="s">
         <v>585</v>
       </c>
@@ -7734,7 +7805,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C419" t="s">
         <v>587</v>
       </c>
@@ -7742,7 +7813,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>589</v>
       </c>
@@ -7753,7 +7824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C421" t="s">
         <v>339</v>
       </c>
@@ -7761,7 +7832,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C422" t="s">
         <v>591</v>
       </c>
@@ -7769,7 +7840,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C423" t="s">
         <v>341</v>
       </c>
@@ -7777,7 +7848,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C424" t="s">
         <v>378</v>
       </c>
@@ -7785,7 +7856,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C425" t="s">
         <v>376</v>
       </c>
@@ -7793,7 +7864,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C426" t="s">
         <v>121</v>
       </c>
@@ -7801,7 +7872,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C427" t="s">
         <v>595</v>
       </c>
@@ -7809,7 +7880,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C428" t="s">
         <v>380</v>
       </c>
@@ -7817,7 +7888,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C429" t="s">
         <v>123</v>
       </c>
@@ -7825,7 +7896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C430" t="s">
         <v>125</v>
       </c>
@@ -7833,7 +7904,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C431" t="s">
         <v>127</v>
       </c>
@@ -7841,7 +7912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C432" t="s">
         <v>129</v>
       </c>
@@ -7849,7 +7920,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C433" t="s">
         <v>139</v>
       </c>
@@ -7857,7 +7928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C434" t="s">
         <v>141</v>
       </c>
@@ -7865,7 +7936,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C435" t="s">
         <v>143</v>
       </c>
@@ -7873,7 +7944,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C436" t="s">
         <v>145</v>
       </c>
@@ -7881,7 +7952,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>601</v>
       </c>
@@ -7895,7 +7966,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C438" t="s">
         <v>605</v>
       </c>
@@ -7903,7 +7974,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C439" t="s">
         <v>607</v>
       </c>
@@ -7911,7 +7982,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>609</v>
       </c>
@@ -7922,7 +7993,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
         <v>612</v>
       </c>
@@ -7930,7 +8001,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C442" t="s">
         <v>614</v>
       </c>
@@ -7938,7 +8009,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C443" t="s">
         <v>119</v>
       </c>
@@ -7946,7 +8017,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C444" t="s">
         <v>115</v>
       </c>
@@ -7954,7 +8025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C445" t="s">
         <v>117</v>
       </c>
@@ -7962,7 +8033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C446" t="s">
         <v>113</v>
       </c>
@@ -7970,7 +8041,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C447" t="s">
         <v>341</v>
       </c>
@@ -7978,7 +8049,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C448" t="s">
         <v>339</v>
       </c>
@@ -7986,7 +8057,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C449" t="s">
         <v>591</v>
       </c>
@@ -7994,7 +8065,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>618</v>
       </c>
@@ -8008,7 +8079,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C451" t="s">
         <v>622</v>
       </c>
@@ -8016,7 +8087,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C452" t="s">
         <v>624</v>
       </c>
@@ -8024,7 +8095,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C453" t="s">
         <v>626</v>
       </c>
@@ -8032,7 +8103,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C454" t="s">
         <v>628</v>
       </c>
@@ -8040,7 +8111,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>630</v>
       </c>
@@ -8051,7 +8122,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C456" t="s">
         <v>633</v>
       </c>
@@ -8059,7 +8130,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C457" t="s">
         <v>635</v>
       </c>
@@ -8067,7 +8138,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C458" t="s">
         <v>637</v>
       </c>
@@ -8075,7 +8146,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>639</v>
       </c>
@@ -8086,7 +8157,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C460" t="s">
         <v>642</v>
       </c>
@@ -8094,7 +8165,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C461" t="s">
         <v>644</v>
       </c>
@@ -8102,7 +8173,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C462" t="s">
         <v>646</v>
       </c>
@@ -8110,7 +8181,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>648</v>
       </c>
@@ -8121,7 +8192,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C464" t="s">
         <v>651</v>
       </c>
@@ -8129,7 +8200,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>653</v>
       </c>
@@ -8140,7 +8211,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C466" t="s">
         <v>656</v>
       </c>
@@ -8148,7 +8219,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>658</v>
       </c>
@@ -8159,7 +8230,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C468" t="s">
         <v>661</v>
       </c>
@@ -8167,7 +8238,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>663</v>
       </c>
@@ -8178,7 +8249,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>666</v>
       </c>
@@ -8189,7 +8260,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C471" t="s">
         <v>669</v>
       </c>
@@ -8197,7 +8268,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C472" t="s">
         <v>671</v>
       </c>
@@ -8205,7 +8276,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C473" t="s">
         <v>673</v>
       </c>
@@ -8213,7 +8284,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C474" t="s">
         <v>675</v>
       </c>
@@ -8221,7 +8292,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C475" t="s">
         <v>677</v>
       </c>
@@ -8229,7 +8300,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C476" t="s">
         <v>679</v>
       </c>
@@ -8237,7 +8308,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>681</v>
       </c>
@@ -8248,7 +8319,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C478" t="s">
         <v>509</v>
       </c>
@@ -8256,7 +8327,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C479" t="s">
         <v>511</v>
       </c>
@@ -8264,7 +8335,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>682</v>
       </c>
@@ -8275,7 +8346,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>685</v>
       </c>
@@ -8286,7 +8357,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C482" t="s">
         <v>622</v>
       </c>
@@ -8294,7 +8365,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>686</v>
       </c>
@@ -8305,7 +8376,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C484" t="s">
         <v>689</v>
       </c>
@@ -8313,7 +8384,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C485" t="s">
         <v>690</v>
       </c>
@@ -8321,7 +8392,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>691</v>
       </c>
@@ -8332,7 +8403,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>694</v>
       </c>
@@ -8346,7 +8417,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C488" t="s">
         <v>698</v>
       </c>
@@ -8354,7 +8425,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C489" t="s">
         <v>700</v>
       </c>
@@ -8362,7 +8433,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C490" t="s">
         <v>702</v>
       </c>
@@ -8370,7 +8441,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C491" t="s">
         <v>704</v>
       </c>
@@ -8378,7 +8449,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C492" t="s">
         <v>706</v>
       </c>
@@ -8386,7 +8457,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C493" t="s">
         <v>696</v>
       </c>
@@ -8394,7 +8465,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>707</v>
       </c>
@@ -8405,7 +8476,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C495" t="s">
         <v>710</v>
       </c>
@@ -8413,7 +8484,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C496" t="s">
         <v>712</v>
       </c>
@@ -8421,7 +8492,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>714</v>
       </c>
@@ -8432,7 +8503,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C498" t="s">
         <v>702</v>
       </c>
@@ -8440,7 +8511,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C499" t="s">
         <v>698</v>
       </c>
@@ -8448,7 +8519,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C500" t="s">
         <v>715</v>
       </c>
@@ -8456,7 +8527,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C501" t="s">
         <v>717</v>
       </c>
@@ -8464,7 +8535,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>719</v>
       </c>
@@ -8475,7 +8546,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C503" t="s">
         <v>722</v>
       </c>
@@ -8483,7 +8554,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>724</v>
       </c>
@@ -8494,7 +8565,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C505" t="s">
         <v>727</v>
       </c>
@@ -8502,7 +8573,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C506" t="s">
         <v>729</v>
       </c>
@@ -8510,7 +8581,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C507" t="s">
         <v>731</v>
       </c>
@@ -8518,7 +8589,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C508" t="s">
         <v>733</v>
       </c>
@@ -8526,7 +8597,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C509" t="s">
         <v>735</v>
       </c>
@@ -8534,7 +8605,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C510" t="s">
         <v>737</v>
       </c>
@@ -8542,7 +8613,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>739</v>
       </c>
@@ -8553,7 +8624,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C512" t="s">
         <v>742</v>
       </c>
@@ -8561,7 +8632,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>744</v>
       </c>
@@ -8572,7 +8643,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>747</v>
       </c>
@@ -8583,7 +8654,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C515" t="s">
         <v>750</v>
       </c>
@@ -8591,7 +8662,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C516" t="s">
         <v>752</v>
       </c>
@@ -8599,7 +8670,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>754</v>
       </c>
@@ -8610,7 +8681,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C518" t="s">
         <v>757</v>
       </c>
@@ -8618,7 +8689,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C519" t="s">
         <v>759</v>
       </c>
@@ -8626,7 +8697,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>761</v>
       </c>
@@ -8637,7 +8708,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C521" t="s">
         <v>764</v>
       </c>
@@ -8645,7 +8716,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C522" t="s">
         <v>766</v>
       </c>
@@ -8653,7 +8724,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C523" t="s">
         <v>768</v>
       </c>
@@ -8661,7 +8732,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>770</v>
       </c>
@@ -8672,7 +8743,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>773</v>
       </c>
@@ -8683,7 +8754,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>776</v>
       </c>
@@ -8694,7 +8765,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C527" t="s">
         <v>779</v>
       </c>
@@ -8702,7 +8773,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C528" t="s">
         <v>781</v>
       </c>
@@ -8710,7 +8781,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C529" t="s">
         <v>783</v>
       </c>
@@ -8718,7 +8789,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C530" t="s">
         <v>785</v>
       </c>
@@ -8726,7 +8797,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>787</v>
       </c>
@@ -8737,7 +8808,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C532" t="s">
         <v>790</v>
       </c>
@@ -8745,2153 +8816,2209 @@
         <v>791</v>
       </c>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C533" t="s">
         <v>1262</v>
       </c>
-      <c r="C533" t="s">
+      <c r="D533" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C534" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C535" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C536" t="s">
         <v>1263</v>
       </c>
-      <c r="D533" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C534" t="s">
+      <c r="D536" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B537" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C538" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C539" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C540" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B541" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C542" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C543" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C544" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C545" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C546" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C547" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C548" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B549" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B550" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C551" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C552" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C553" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D553" t="s">
         <v>1306</v>
       </c>
-      <c r="D534" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C535" t="s">
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B554" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C555" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C556" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C557" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C558" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C559" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B560" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B561" t="s">
         <v>1307</v>
       </c>
-      <c r="D535" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B536" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B537" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D537" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C538" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D538" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C539" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D539" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C540" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D540" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B541" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D541" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C542" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D542" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C543" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D543" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C544" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D544" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C545" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D545" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C546" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C547" t="s">
+      <c r="C561" t="s">
         <v>1278</v>
       </c>
-      <c r="D547" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C548" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D548" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B549" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C549" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D549" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B550" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D550" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C551" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D551" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B552" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D552" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B553" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D553" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B554" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C554" t="s">
+      <c r="D561" t="s">
         <v>1290</v>
       </c>
-      <c r="D554" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
         <v>792</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B562" t="s">
         <v>793</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C562" t="s">
         <v>794</v>
       </c>
-      <c r="D555" t="s">
+      <c r="D562" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C556" t="s">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C563" t="s">
         <v>796</v>
       </c>
-      <c r="D556" t="s">
+      <c r="D563" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C557" t="s">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C564" t="s">
         <v>798</v>
       </c>
-      <c r="D557" t="s">
+      <c r="D564" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C558" t="s">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C565" t="s">
         <v>800</v>
       </c>
-      <c r="D558" t="s">
+      <c r="D565" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C559" t="s">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C566" t="s">
         <v>802</v>
       </c>
-      <c r="D559" t="s">
+      <c r="D566" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C560" t="s">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C567" t="s">
         <v>804</v>
       </c>
-      <c r="D560" t="s">
+      <c r="D567" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C561" t="s">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C568" t="s">
         <v>806</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D568" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C562" t="s">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C569" t="s">
         <v>808</v>
       </c>
-      <c r="D562" t="s">
+      <c r="D569" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B563" t="s">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B570" t="s">
         <v>810</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C570" t="s">
         <v>811</v>
       </c>
-      <c r="D563" t="s">
+      <c r="D570" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C564" t="s">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C571" t="s">
         <v>813</v>
       </c>
-      <c r="D564" t="s">
+      <c r="D571" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C565" t="s">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C572" t="s">
         <v>815</v>
       </c>
-      <c r="D565" t="s">
+      <c r="D572" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C566" t="s">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C573" t="s">
         <v>817</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D573" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C567" t="s">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C574" t="s">
         <v>819</v>
       </c>
-      <c r="D567" t="s">
+      <c r="D574" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C568" t="s">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C575" t="s">
         <v>821</v>
       </c>
-      <c r="D568" t="s">
+      <c r="D575" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C569" t="s">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C576" t="s">
         <v>823</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D576" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C570" t="s">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C577" t="s">
         <v>825</v>
       </c>
-      <c r="D570" t="s">
+      <c r="D577" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C571" t="s">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C578" t="s">
         <v>827</v>
       </c>
-      <c r="D571" t="s">
+      <c r="D578" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B572" t="s">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B579" t="s">
         <v>829</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C579" t="s">
         <v>830</v>
       </c>
-      <c r="D572" t="s">
+      <c r="D579" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C573" t="s">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C580" t="s">
         <v>832</v>
       </c>
-      <c r="D573" t="s">
+      <c r="D580" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C574" t="s">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C581" t="s">
         <v>834</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D581" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C575" t="s">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C582" t="s">
         <v>836</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D582" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C576" t="s">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C583" t="s">
         <v>838</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D583" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C577" t="s">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C584" t="s">
         <v>840</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D584" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C578" t="s">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C585" t="s">
         <v>842</v>
       </c>
-      <c r="D578" t="s">
+      <c r="D585" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C579" t="s">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C586" t="s">
         <v>844</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D586" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C580" t="s">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C587" t="s">
         <v>846</v>
       </c>
-      <c r="D580" t="s">
+      <c r="D587" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C581" t="s">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C588" t="s">
         <v>848</v>
       </c>
-      <c r="D581" t="s">
+      <c r="D588" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C582" t="s">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C589" t="s">
         <v>850</v>
       </c>
-      <c r="D582" t="s">
+      <c r="D589" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C583" t="s">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C590" t="s">
         <v>852</v>
       </c>
-      <c r="D583" t="s">
+      <c r="D590" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C584" t="s">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C591" t="s">
         <v>854</v>
       </c>
-      <c r="D584" t="s">
+      <c r="D591" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C585" t="s">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C592" t="s">
         <v>856</v>
       </c>
-      <c r="D585" t="s">
+      <c r="D592" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C586" t="s">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C593" t="s">
         <v>858</v>
       </c>
-      <c r="D586" t="s">
+      <c r="D593" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C587" t="s">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C594" t="s">
         <v>860</v>
       </c>
-      <c r="D587" t="s">
+      <c r="D594" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C588" t="s">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C595" t="s">
         <v>862</v>
       </c>
-      <c r="D588" t="s">
+      <c r="D595" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B589" t="s">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B596" t="s">
         <v>864</v>
       </c>
-      <c r="C589" t="s">
+      <c r="C596" t="s">
         <v>865</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D596" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C590" t="s">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C597" t="s">
         <v>867</v>
       </c>
-      <c r="D590" t="s">
+      <c r="D597" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C591" t="s">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C598" t="s">
         <v>869</v>
       </c>
-      <c r="D591" t="s">
+      <c r="D598" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C592" t="s">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C599" t="s">
         <v>871</v>
       </c>
-      <c r="D592" t="s">
+      <c r="D599" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C593" t="s">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C600" t="s">
         <v>873</v>
       </c>
-      <c r="D593" t="s">
+      <c r="D600" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C594" t="s">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C601" t="s">
         <v>875</v>
       </c>
-      <c r="D594" t="s">
+      <c r="D601" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C595" t="s">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C602" t="s">
         <v>877</v>
       </c>
-      <c r="D595" t="s">
+      <c r="D602" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C596" t="s">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C603" t="s">
         <v>879</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D603" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C597" t="s">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C604" t="s">
         <v>881</v>
       </c>
-      <c r="D597" t="s">
+      <c r="D604" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C598" t="s">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C605" t="s">
         <v>883</v>
       </c>
-      <c r="D598" t="s">
+      <c r="D605" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C599" t="s">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C606" t="s">
         <v>885</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D606" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C600" t="s">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C607" t="s">
         <v>887</v>
       </c>
-      <c r="D600" t="s">
+      <c r="D607" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C601" t="s">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C608" t="s">
         <v>889</v>
       </c>
-      <c r="D601" t="s">
+      <c r="D608" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C602" t="s">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C609" t="s">
         <v>891</v>
       </c>
-      <c r="D602" t="s">
+      <c r="D609" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B603" t="s">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B610" t="s">
         <v>893</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C610" t="s">
         <v>135</v>
       </c>
-      <c r="D603" t="s">
+      <c r="D610" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C604" t="s">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C611" t="s">
         <v>137</v>
       </c>
-      <c r="D604" t="s">
+      <c r="D611" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C605" t="s">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C612" t="s">
         <v>374</v>
       </c>
-      <c r="D605" t="s">
+      <c r="D612" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C606" t="s">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C613" t="s">
         <v>273</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D613" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C607" t="s">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C614" t="s">
         <v>131</v>
       </c>
-      <c r="D607" t="s">
+      <c r="D614" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C608" t="s">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C615" t="s">
         <v>133</v>
       </c>
-      <c r="D608" t="s">
+      <c r="D615" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B609" t="s">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B616" t="s">
         <v>894</v>
       </c>
-      <c r="C609" t="s">
+      <c r="C616" t="s">
         <v>895</v>
       </c>
-      <c r="D609" t="s">
+      <c r="D616" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C610" t="s">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C617" t="s">
         <v>897</v>
       </c>
-      <c r="D610" t="s">
+      <c r="D617" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C611" t="s">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C618" t="s">
         <v>899</v>
       </c>
-      <c r="D611" t="s">
+      <c r="D618" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C612" t="s">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C619" t="s">
         <v>901</v>
       </c>
-      <c r="D612" t="s">
+      <c r="D619" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C613" t="s">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C620" t="s">
         <v>903</v>
       </c>
-      <c r="D613" t="s">
+      <c r="D620" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B614" t="s">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B621" t="s">
         <v>905</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C621" t="s">
         <v>906</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D621" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C615" t="s">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C622" t="s">
         <v>908</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D622" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C616" t="s">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C623" t="s">
         <v>910</v>
       </c>
-      <c r="D616" t="s">
+      <c r="D623" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C617" t="s">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C624" t="s">
         <v>912</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D624" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B618" t="s">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B625" t="s">
         <v>914</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C625" t="s">
         <v>915</v>
       </c>
-      <c r="D618" t="s">
+      <c r="D625" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C619" t="s">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C626" t="s">
         <v>917</v>
       </c>
-      <c r="D619" t="s">
+      <c r="D626" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C620" t="s">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C627" t="s">
         <v>919</v>
       </c>
-      <c r="D620" t="s">
+      <c r="D627" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C621" t="s">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C628" t="s">
         <v>921</v>
       </c>
-      <c r="D621" t="s">
+      <c r="D628" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B622" t="s">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B629" t="s">
         <v>923</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C629" t="s">
         <v>924</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D629" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C623" t="s">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C630" t="s">
         <v>926</v>
       </c>
-      <c r="D623" t="s">
+      <c r="D630" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C624" t="s">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C631" t="s">
         <v>928</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D631" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C625" t="s">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C632" t="s">
         <v>930</v>
       </c>
-      <c r="D625" t="s">
+      <c r="D632" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C626" t="s">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C633" t="s">
         <v>932</v>
       </c>
-      <c r="D626" t="s">
+      <c r="D633" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B627" t="s">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B634" t="s">
         <v>934</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C634" t="s">
         <v>935</v>
       </c>
-      <c r="D627" t="s">
+      <c r="D634" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C628" t="s">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C635" t="s">
         <v>937</v>
       </c>
-      <c r="D628" t="s">
+      <c r="D635" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C629" t="s">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C636" t="s">
         <v>939</v>
       </c>
-      <c r="D629" t="s">
+      <c r="D636" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C630" t="s">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C637" t="s">
         <v>941</v>
       </c>
-      <c r="D630" t="s">
+      <c r="D637" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B631" t="s">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B638" t="s">
         <v>943</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C638" t="s">
         <v>944</v>
       </c>
-      <c r="D631" t="s">
+      <c r="D638" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C632" t="s">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C639" t="s">
         <v>946</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D639" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C633" t="s">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C640" t="s">
         <v>948</v>
       </c>
-      <c r="D633" t="s">
+      <c r="D640" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C634" t="s">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C641" t="s">
         <v>950</v>
       </c>
-      <c r="D634" t="s">
+      <c r="D641" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C635" t="s">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C642" t="s">
         <v>952</v>
       </c>
-      <c r="D635" t="s">
+      <c r="D642" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C636" t="s">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C643" t="s">
         <v>954</v>
       </c>
-      <c r="D636" t="s">
+      <c r="D643" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C637" t="s">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C644" t="s">
         <v>956</v>
       </c>
-      <c r="D637" t="s">
+      <c r="D644" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C638" t="s">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C645" t="s">
         <v>958</v>
       </c>
-      <c r="D638" t="s">
+      <c r="D645" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C639" t="s">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C646" t="s">
         <v>960</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D646" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C640" t="s">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C647" t="s">
         <v>962</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D647" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C641" t="s">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C648" t="s">
         <v>964</v>
       </c>
-      <c r="D641" t="s">
+      <c r="D648" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
         <v>966</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B649" t="s">
         <v>967</v>
       </c>
-      <c r="C642" t="s">
+      <c r="C649" t="s">
         <v>968</v>
       </c>
-      <c r="D642" t="s">
+      <c r="D649" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C643" t="s">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C650" t="s">
         <v>970</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D650" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C644" t="s">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C651" t="s">
         <v>972</v>
       </c>
-      <c r="D644" t="s">
+      <c r="D651" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B645" t="s">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B652" t="s">
         <v>974</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C652" t="s">
         <v>975</v>
       </c>
-      <c r="D645" t="s">
+      <c r="D652" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C646" t="s">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C653" t="s">
         <v>977</v>
       </c>
-      <c r="D646" t="s">
+      <c r="D653" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C647" t="s">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C654" t="s">
         <v>979</v>
       </c>
-      <c r="D647" t="s">
+      <c r="D654" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C648" t="s">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C655" t="s">
         <v>981</v>
       </c>
-      <c r="D648" t="s">
+      <c r="D655" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C649" t="s">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C656" t="s">
         <v>983</v>
       </c>
-      <c r="D649" t="s">
+      <c r="D656" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C650" t="s">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C657" t="s">
         <v>985</v>
       </c>
-      <c r="D650" t="s">
+      <c r="D657" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C651" t="s">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C658" t="s">
         <v>987</v>
       </c>
-      <c r="D651" t="s">
+      <c r="D658" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C652" t="s">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C659" t="s">
         <v>989</v>
       </c>
-      <c r="D652" t="s">
+      <c r="D659" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C653" t="s">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C660" t="s">
         <v>991</v>
       </c>
-      <c r="D653" t="s">
+      <c r="D660" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C654" t="s">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C661" t="s">
         <v>993</v>
       </c>
-      <c r="D654" t="s">
+      <c r="D661" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C655" t="s">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C662" t="s">
         <v>995</v>
       </c>
-      <c r="D655" t="s">
+      <c r="D662" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C656" t="s">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C663" t="s">
         <v>997</v>
       </c>
-      <c r="D656" t="s">
+      <c r="D663" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C657" t="s">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C664" t="s">
         <v>999</v>
       </c>
-      <c r="D657" t="s">
+      <c r="D664" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C658" t="s">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C665" t="s">
         <v>1001</v>
       </c>
-      <c r="D658" t="s">
+      <c r="D665" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C659" t="s">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C666" t="s">
         <v>1003</v>
       </c>
-      <c r="D659" t="s">
+      <c r="D666" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B660" t="s">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B667" t="s">
         <v>1005</v>
       </c>
-      <c r="C660" t="s">
+      <c r="C667" t="s">
         <v>1006</v>
       </c>
-      <c r="D660" t="s">
+      <c r="D667" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C661" t="s">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C668" t="s">
         <v>1008</v>
       </c>
-      <c r="D661" t="s">
+      <c r="D668" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C662" t="s">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C669" t="s">
         <v>1010</v>
       </c>
-      <c r="D662" t="s">
+      <c r="D669" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C663" t="s">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C670" t="s">
         <v>1012</v>
       </c>
-      <c r="D663" t="s">
+      <c r="D670" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C664" t="s">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C671" t="s">
         <v>1014</v>
       </c>
-      <c r="D664" t="s">
+      <c r="D671" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C665" t="s">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C672" t="s">
         <v>1016</v>
       </c>
-      <c r="D665" t="s">
+      <c r="D672" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C666" t="s">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C673" t="s">
         <v>1018</v>
       </c>
-      <c r="D666" t="s">
+      <c r="D673" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C667" t="s">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C674" t="s">
         <v>1020</v>
       </c>
-      <c r="D667" t="s">
+      <c r="D674" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C668" t="s">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C675" t="s">
         <v>1022</v>
       </c>
-      <c r="D668" t="s">
+      <c r="D675" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C669" t="s">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C676" t="s">
         <v>1024</v>
       </c>
-      <c r="D669" t="s">
+      <c r="D676" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C670" t="s">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C677" t="s">
         <v>1026</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D677" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C671" t="s">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C678" t="s">
         <v>1028</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D678" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C672" t="s">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C679" t="s">
         <v>1030</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D679" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B673" t="s">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B680" t="s">
         <v>1032</v>
       </c>
-      <c r="C673" t="s">
+      <c r="C680" t="s">
         <v>1033</v>
       </c>
-      <c r="D673" t="s">
+      <c r="D680" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C674" t="s">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C681" t="s">
         <v>1035</v>
       </c>
-      <c r="D674" t="s">
+      <c r="D681" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C675" t="s">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C682" t="s">
         <v>1037</v>
       </c>
-      <c r="D675" t="s">
+      <c r="D682" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C676" t="s">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C683" t="s">
         <v>1039</v>
       </c>
-      <c r="D676" t="s">
+      <c r="D683" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C677" t="s">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C684" t="s">
         <v>1041</v>
       </c>
-      <c r="D677" t="s">
+      <c r="D684" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C678" t="s">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C685" t="s">
         <v>1043</v>
       </c>
-      <c r="D678" t="s">
+      <c r="D685" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C679" t="s">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C686" t="s">
         <v>1045</v>
       </c>
-      <c r="D679" t="s">
+      <c r="D686" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C680" t="s">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C687" t="s">
         <v>1047</v>
       </c>
-      <c r="D680" t="s">
+      <c r="D687" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="681" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C681" t="s">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C688" t="s">
         <v>1049</v>
       </c>
-      <c r="D681" t="s">
+      <c r="D688" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C682" t="s">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C689" t="s">
         <v>1051</v>
       </c>
-      <c r="D682" t="s">
+      <c r="D689" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="683" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C683" t="s">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C690" t="s">
         <v>1053</v>
       </c>
-      <c r="D683" t="s">
+      <c r="D690" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="684" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C684" t="s">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C691" t="s">
         <v>1055</v>
       </c>
-      <c r="D684" t="s">
+      <c r="D691" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="685" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B685" t="s">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B692" t="s">
         <v>1057</v>
       </c>
-      <c r="C685" t="s">
+      <c r="C692" t="s">
         <v>1058</v>
       </c>
-      <c r="D685" t="s">
+      <c r="D692" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="686" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C686" t="s">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C693" t="s">
         <v>1060</v>
       </c>
-      <c r="D686" t="s">
+      <c r="D693" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="687" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C687" t="s">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C694" t="s">
         <v>1062</v>
       </c>
-      <c r="D687" t="s">
+      <c r="D694" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="688" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C688" t="s">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C695" t="s">
         <v>1064</v>
       </c>
-      <c r="D688" t="s">
+      <c r="D695" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="689" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C689" t="s">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C696" t="s">
         <v>1066</v>
       </c>
-      <c r="D689" t="s">
+      <c r="D696" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="690" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C690" t="s">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C697" t="s">
         <v>1068</v>
       </c>
-      <c r="D690" t="s">
+      <c r="D697" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="691" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C691" t="s">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C698" t="s">
         <v>1070</v>
       </c>
-      <c r="D691" t="s">
+      <c r="D698" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="692" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C692" t="s">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C699" t="s">
         <v>1072</v>
       </c>
-      <c r="D692" t="s">
+      <c r="D699" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C693" t="s">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C700" t="s">
         <v>1074</v>
       </c>
-      <c r="D693" t="s">
+      <c r="D700" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="694" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B694" t="s">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B701" t="s">
         <v>1076</v>
       </c>
-      <c r="C694" t="s">
+      <c r="C701" t="s">
         <v>1077</v>
       </c>
-      <c r="D694" t="s">
+      <c r="D701" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C695" t="s">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C702" t="s">
         <v>1079</v>
       </c>
-      <c r="D695" t="s">
+      <c r="D702" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="696" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C696" t="s">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C703" t="s">
         <v>1081</v>
       </c>
-      <c r="D696" t="s">
+      <c r="D703" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="697" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C697" t="s">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C704" t="s">
         <v>1083</v>
       </c>
-      <c r="D697" t="s">
+      <c r="D704" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="698" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C698" t="s">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C705" t="s">
         <v>1085</v>
       </c>
-      <c r="D698" t="s">
+      <c r="D705" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C699" t="s">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C706" t="s">
         <v>1087</v>
       </c>
-      <c r="D699" t="s">
+      <c r="D706" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="700" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C700" t="s">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C707" t="s">
         <v>1089</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D707" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="701" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C701" t="s">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C708" t="s">
         <v>1091</v>
       </c>
-      <c r="D701" t="s">
+      <c r="D708" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="702" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C702" t="s">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C709" t="s">
         <v>1093</v>
       </c>
-      <c r="D702" t="s">
+      <c r="D709" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C703" t="s">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C710" t="s">
         <v>1095</v>
       </c>
-      <c r="D703" t="s">
+      <c r="D710" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C704" t="s">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C711" t="s">
         <v>1097</v>
       </c>
-      <c r="D704" t="s">
+      <c r="D711" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C705" t="s">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C712" t="s">
         <v>1099</v>
       </c>
-      <c r="D705" t="s">
+      <c r="D712" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C706" t="s">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C713" t="s">
         <v>1101</v>
       </c>
-      <c r="D706" t="s">
+      <c r="D713" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B707" t="s">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B714" t="s">
         <v>1103</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C714" t="s">
         <v>1104</v>
       </c>
-      <c r="D707" t="s">
+      <c r="D714" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C708" t="s">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C715" t="s">
         <v>1106</v>
       </c>
-      <c r="D708" t="s">
+      <c r="D715" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C709" t="s">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C716" t="s">
         <v>1108</v>
       </c>
-      <c r="D709" t="s">
+      <c r="D716" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C710" t="s">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C717" t="s">
         <v>1110</v>
       </c>
-      <c r="D710" t="s">
+      <c r="D717" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B711" t="s">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B718" t="s">
         <v>1112</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C718" t="s">
         <v>1113</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D718" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C712" t="s">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C719" t="s">
         <v>1115</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D719" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C713" t="s">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C720" t="s">
         <v>1117</v>
       </c>
-      <c r="D713" t="s">
+      <c r="D720" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C714" t="s">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C721" t="s">
         <v>1119</v>
       </c>
-      <c r="D714" t="s">
+      <c r="D721" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C715" t="s">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C722" t="s">
         <v>1121</v>
       </c>
-      <c r="D715" t="s">
+      <c r="D722" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A716" t="s">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
         <v>1123</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B723" t="s">
         <v>1124</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C723" t="s">
         <v>1125</v>
       </c>
-      <c r="D716" t="s">
+      <c r="D723" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C717" t="s">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C724" t="s">
         <v>1127</v>
       </c>
-      <c r="D717" t="s">
+      <c r="D724" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C718" t="s">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C725" t="s">
         <v>1129</v>
       </c>
-      <c r="D718" t="s">
+      <c r="D725" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C719" t="s">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C726" t="s">
         <v>1131</v>
       </c>
-      <c r="D719" t="s">
+      <c r="D726" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C720" t="s">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C727" t="s">
         <v>1133</v>
       </c>
-      <c r="D720" t="s">
+      <c r="D727" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="721" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C721" t="s">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C728" t="s">
         <v>1135</v>
       </c>
-      <c r="D721" t="s">
+      <c r="D728" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="722" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C722" t="s">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C729" t="s">
         <v>1137</v>
       </c>
-      <c r="D722" t="s">
+      <c r="D729" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="723" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C723" t="s">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C730" t="s">
         <v>1139</v>
       </c>
-      <c r="D723" t="s">
+      <c r="D730" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="724" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C724" t="s">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C731" t="s">
         <v>1141</v>
       </c>
-      <c r="D724" t="s">
+      <c r="D731" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="725" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C725" t="s">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C732" t="s">
         <v>1143</v>
       </c>
-      <c r="D725" t="s">
+      <c r="D732" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="726" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C726" t="s">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C733" t="s">
         <v>1145</v>
       </c>
-      <c r="D726" t="s">
+      <c r="D733" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="727" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C727" t="s">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C734" t="s">
         <v>1147</v>
       </c>
-      <c r="D727" t="s">
+      <c r="D734" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="728" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C728" t="s">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C735" t="s">
         <v>1149</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D735" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="729" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C729" t="s">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C736" t="s">
         <v>1151</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D736" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="730" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C730" t="s">
+    <row r="737" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C737" t="s">
         <v>1153</v>
       </c>
-      <c r="D730" t="s">
+      <c r="D737" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="731" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C731" t="s">
+    <row r="738" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C738" t="s">
         <v>1155</v>
       </c>
-      <c r="D731" t="s">
+      <c r="D738" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="732" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C732" t="s">
+    <row r="739" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C739" t="s">
         <v>1157</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D739" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="733" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C733" t="s">
+    <row r="740" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C740" t="s">
         <v>1159</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D740" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="734" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C734" t="s">
+    <row r="741" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C741" t="s">
         <v>1161</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D741" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="735" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C735" t="s">
+    <row r="742" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C742" t="s">
         <v>1163</v>
       </c>
-      <c r="D735" t="s">
+      <c r="D742" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="736" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C736" t="s">
+    <row r="743" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C743" t="s">
         <v>1165</v>
       </c>
-      <c r="D736" t="s">
+      <c r="D743" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="737" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C737" t="s">
+    <row r="744" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C744" t="s">
         <v>1167</v>
       </c>
-      <c r="D737" t="s">
+      <c r="D744" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="738" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C738" t="s">
+    <row r="745" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C745" t="s">
         <v>1169</v>
       </c>
-      <c r="D738" t="s">
+      <c r="D745" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="739" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C739" t="s">
+    <row r="746" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C746" t="s">
         <v>1171</v>
       </c>
-      <c r="D739" t="s">
+      <c r="D746" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="740" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C740" t="s">
+    <row r="747" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C747" t="s">
         <v>1173</v>
       </c>
-      <c r="D740" t="s">
+      <c r="D747" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="741" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C741" t="s">
+    <row r="748" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C748" t="s">
         <v>1175</v>
       </c>
-      <c r="D741" t="s">
+      <c r="D748" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="742" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B742" t="s">
+    <row r="749" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B749" t="s">
         <v>1177</v>
       </c>
-      <c r="C742" t="s">
+      <c r="C749" t="s">
         <v>1178</v>
       </c>
-      <c r="D742" t="s">
+      <c r="D749" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="743" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C743" t="s">
+    <row r="750" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C750" t="s">
         <v>1180</v>
       </c>
-      <c r="D743" t="s">
+      <c r="D750" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="744" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C744" t="s">
+    <row r="751" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C751" t="s">
         <v>1182</v>
       </c>
-      <c r="D744" t="s">
+      <c r="D751" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="745" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C745" t="s">
+    <row r="752" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C752" t="s">
         <v>1184</v>
       </c>
-      <c r="D745" t="s">
+      <c r="D752" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="746" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C746" t="s">
+    <row r="753" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C753" t="s">
         <v>1186</v>
       </c>
-      <c r="D746" t="s">
+      <c r="D753" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="747" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C747" t="s">
+    <row r="754" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C754" t="s">
         <v>1188</v>
       </c>
-      <c r="D747" t="s">
+      <c r="D754" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="748" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C748" t="s">
+    <row r="755" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C755" t="s">
         <v>1190</v>
       </c>
-      <c r="D748" t="s">
+      <c r="D755" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="749" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C749" t="s">
+    <row r="756" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C756" t="s">
         <v>1192</v>
       </c>
-      <c r="D749" t="s">
+      <c r="D756" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="750" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C750" t="s">
+    <row r="757" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C757" t="s">
         <v>1194</v>
       </c>
-      <c r="D750" t="s">
+      <c r="D757" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="751" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C751" t="s">
+    <row r="758" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C758" t="s">
         <v>1196</v>
       </c>
-      <c r="D751" t="s">
+      <c r="D758" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="752" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C752" t="s">
+    <row r="759" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C759" t="s">
         <v>1198</v>
       </c>
-      <c r="D752" t="s">
+      <c r="D759" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="753" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C753" t="s">
+    <row r="760" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C760" t="s">
         <v>1200</v>
       </c>
-      <c r="D753" t="s">
+      <c r="D760" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="754" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C754" t="s">
+    <row r="761" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C761" t="s">
         <v>1202</v>
       </c>
-      <c r="D754" t="s">
+      <c r="D761" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="755" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C755" t="s">
+    <row r="762" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C762" t="s">
         <v>1204</v>
       </c>
-      <c r="D755" t="s">
+      <c r="D762" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="756" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C756" t="s">
+    <row r="763" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C763" t="s">
         <v>1206</v>
       </c>
-      <c r="D756" t="s">
+      <c r="D763" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="757" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C757" t="s">
+    <row r="764" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C764" t="s">
         <v>1208</v>
       </c>
-      <c r="D757" t="s">
+      <c r="D764" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="758" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C758" t="s">
+    <row r="765" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C765" t="s">
         <v>1210</v>
       </c>
-      <c r="D758" t="s">
+      <c r="D765" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="759" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C759" t="s">
+    <row r="766" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C766" t="s">
         <v>1212</v>
       </c>
-      <c r="D759" t="s">
+      <c r="D766" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="760" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C760" t="s">
+    <row r="767" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C767" t="s">
         <v>1214</v>
       </c>
-      <c r="D760" t="s">
+      <c r="D767" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="761" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C761" t="s">
+    <row r="768" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C768" t="s">
         <v>1167</v>
       </c>
-      <c r="D761" t="s">
+      <c r="D768" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="762" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C762" t="s">
+    <row r="769" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C769" t="s">
         <v>1169</v>
       </c>
-      <c r="D762" t="s">
+      <c r="D769" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="763" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C763" t="s">
+    <row r="770" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C770" t="s">
         <v>1171</v>
       </c>
-      <c r="D763" t="s">
+      <c r="D770" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="764" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C764" t="s">
+    <row r="771" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C771" t="s">
         <v>1216</v>
       </c>
-      <c r="D764" t="s">
+      <c r="D771" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="765" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C765" t="s">
+    <row r="772" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C772" t="s">
         <v>1218</v>
       </c>
-      <c r="D765" t="s">
+      <c r="D772" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="766" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C766" t="s">
+    <row r="773" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C773" t="s">
         <v>1220</v>
       </c>
-      <c r="D766" t="s">
+      <c r="D773" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="767" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C767" t="s">
+    <row r="774" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C774" t="s">
         <v>1222</v>
       </c>
-      <c r="D767" t="s">
+      <c r="D774" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="768" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C768" t="s">
+    <row r="775" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C775" t="s">
         <v>1224</v>
       </c>
-      <c r="D768" t="s">
+      <c r="D775" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="769" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C769" t="s">
+    <row r="776" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C776" t="s">
         <v>1226</v>
       </c>
-      <c r="D769" t="s">
+      <c r="D776" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="770" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C770" t="s">
+    <row r="777" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C777" t="s">
         <v>1228</v>
       </c>
-      <c r="D770" t="s">
+      <c r="D777" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="771" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C771" t="s">
+    <row r="778" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C778" t="s">
         <v>1230</v>
       </c>
-      <c r="D771" t="s">
+      <c r="D778" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="772" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C772" t="s">
+    <row r="779" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C779" t="s">
         <v>1232</v>
       </c>
-      <c r="D772" t="s">
+      <c r="D779" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="773" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C773" t="s">
+    <row r="780" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C780" t="s">
         <v>1173</v>
       </c>
-      <c r="D773" t="s">
+      <c r="D780" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="774" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C774" t="s">
+    <row r="781" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C781" t="s">
         <v>1175</v>
       </c>
-      <c r="D774" t="s">
+      <c r="D781" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="775" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C775" t="s">
+    <row r="782" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C782" t="s">
         <v>1234</v>
       </c>
-      <c r="D775" t="s">
+      <c r="D782" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="776" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C776" t="s">
+    <row r="783" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C783" t="s">
         <v>1236</v>
       </c>
-      <c r="D776" t="s">
+      <c r="D783" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="777" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C777" t="s">
+    <row r="784" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C784" t="s">
         <v>1238</v>
       </c>
-      <c r="D777" t="s">
+      <c r="D784" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="778" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C778" t="s">
+    <row r="785" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C785" t="s">
         <v>1240</v>
       </c>
-      <c r="D778" t="s">
+      <c r="D785" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="779" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C779" t="s">
+    <row r="786" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C786" t="s">
         <v>1242</v>
       </c>
-      <c r="D779" t="s">
+      <c r="D786" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="780" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C780" t="s">
+    <row r="787" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C787" t="s">
         <v>1244</v>
       </c>
-      <c r="D780" t="s">
+      <c r="D787" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="781" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C781" t="s">
+    <row r="788" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C788" t="s">
         <v>1246</v>
       </c>
-      <c r="D781" t="s">
+      <c r="D788" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="782" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B782" t="s">
+    <row r="789" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B789" t="s">
         <v>1248</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C789" t="s">
         <v>1249</v>
       </c>
-      <c r="D782" t="s">
+      <c r="D789" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="783" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C783" t="s">
+    <row r="790" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C790" t="s">
         <v>1251</v>
       </c>
-      <c r="D783" t="s">
+      <c r="D790" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="784" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C784" t="s">
+    <row r="791" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C791" t="s">
         <v>1252</v>
       </c>
-      <c r="D784" t="s">
+      <c r="D791" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="785" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C785" t="s">
+    <row r="792" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C792" t="s">
         <v>1254</v>
       </c>
-      <c r="D785" t="s">
+      <c r="D792" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="786" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C786" t="s">
+    <row r="793" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C793" t="s">
         <v>1256</v>
       </c>
-      <c r="D786" t="s">
+      <c r="D793" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="787" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C787" t="s">
+    <row r="794" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C794" t="s">
         <v>1258</v>
       </c>
-      <c r="D787" t="s">
+      <c r="D794" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="788" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C788" t="s">
+    <row r="795" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C795" t="s">
         <v>1260</v>
       </c>
-      <c r="D788" t="s">
+      <c r="D795" t="s">
         <v>1261</v>
       </c>
     </row>
